--- a/SE2020-G02-需求规格说明/SRS阶段任务细则.xlsx
+++ b/SE2020-G02-需求规格说明/SRS阶段任务细则.xlsx
@@ -108,11 +108,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,36 +122,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -165,6 +175,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -173,12 +198,56 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -189,69 +258,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,20 +271,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -288,187 +281,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,16 +475,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -501,42 +494,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,22 +518,57 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,168 +577,165 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1096,357 +1086,338 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="21.7777777777778" style="2" customWidth="1"/>
-    <col min="2" max="2" width="40" style="2" customWidth="1"/>
-    <col min="3" max="5" width="13.2222222222222" style="2" customWidth="1"/>
-    <col min="6" max="13" width="9" style="2"/>
-    <col min="14" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="21.7777777777778" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40" style="1" customWidth="1"/>
+    <col min="3" max="5" width="13.2222222222222" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="2:5">
-      <c r="B2" s="3"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>2</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>80</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <f>SUMPRODUCT(C3:C9*D3:D9)/SUM(C3:C9)</f>
         <v>86.0714285714286</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="4"/>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>3</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>90</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="4"/>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>2</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>90</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="4"/>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="3"/>
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>85</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="4"/>
-      <c r="B7" s="2" t="s">
+      <c r="A7" s="3"/>
+      <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>2</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>85</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="4"/>
-      <c r="B8" s="2" t="s">
+      <c r="A8" s="3"/>
+      <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>2</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>90</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="4"/>
-      <c r="B9" s="2" t="s">
+      <c r="A9" s="3"/>
+      <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>2</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>80</v>
       </c>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" s="1" customFormat="1"/>
+      <c r="E9" s="4"/>
+    </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>2</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>90</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <f>SUMPRODUCT(C11:C18*D11:D18)/SUM(C11:C18)</f>
         <v>85.3333333333333</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="4"/>
-      <c r="B12" s="2" t="s">
+      <c r="A12" s="3"/>
+      <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>2</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>85</v>
       </c>
-      <c r="E12" s="5"/>
+      <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="4"/>
-      <c r="B13" s="2" t="s">
+      <c r="A13" s="3"/>
+      <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <v>2</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>90</v>
       </c>
-      <c r="E13" s="5"/>
+      <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="4"/>
-      <c r="B14" s="2" t="s">
+      <c r="A14" s="3"/>
+      <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>3</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>80</v>
       </c>
-      <c r="E14" s="5"/>
+      <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="4"/>
-      <c r="B15" s="2" t="s">
+      <c r="A15" s="3"/>
+      <c r="B15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>3</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <v>80</v>
       </c>
-      <c r="E15" s="5"/>
+      <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="4"/>
-      <c r="B16" s="2" t="s">
+      <c r="A16" s="3"/>
+      <c r="B16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <v>1</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <v>90</v>
       </c>
-      <c r="E16" s="5"/>
+      <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="4"/>
-      <c r="B17" s="2" t="s">
+      <c r="A17" s="3"/>
+      <c r="B17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="1">
         <v>90</v>
       </c>
-      <c r="E17" s="5"/>
+      <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="4"/>
-      <c r="B18" s="2" t="s">
+      <c r="A18" s="3"/>
+      <c r="B18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="1">
         <v>1</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="1">
         <v>90</v>
       </c>
-      <c r="E18" s="5"/>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="1:13">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
+      <c r="E18" s="4"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="1">
         <v>2</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="1">
         <v>85</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="4">
         <f>SUMPRODUCT(C20:C26*D20:D26)/SUM(C20:C26)</f>
-        <v>85.6666666666667</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="4"/>
-      <c r="B21" s="2" t="s">
+      <c r="A21" s="3"/>
+      <c r="B21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="1">
         <v>2</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="1">
         <v>90</v>
       </c>
-      <c r="E21" s="5"/>
+      <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="4"/>
-      <c r="B22" s="2" t="s">
+      <c r="A22" s="3"/>
+      <c r="B22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="1">
         <v>1</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="1">
         <v>90</v>
       </c>
-      <c r="E22" s="5"/>
+      <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="4"/>
-      <c r="B23" s="2" t="s">
+      <c r="A23" s="3"/>
+      <c r="B23" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="1">
         <v>2</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="1">
         <v>85</v>
       </c>
-      <c r="E23" s="5"/>
+      <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="4"/>
-      <c r="B24" s="2" t="s">
+      <c r="A24" s="3"/>
+      <c r="B24" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="1">
         <v>3</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="1">
         <v>80</v>
       </c>
-      <c r="E24" s="5"/>
+      <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="4"/>
-      <c r="B25" s="2" t="s">
+      <c r="A25" s="3"/>
+      <c r="B25" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="1">
         <v>3</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="1">
         <v>85</v>
       </c>
-      <c r="E25" s="5"/>
+      <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="4"/>
-      <c r="B26" s="2" t="s">
+      <c r="A26" s="3"/>
+      <c r="B26" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="1">
         <v>2</v>
       </c>
-      <c r="D26" s="2">
-        <v>90</v>
-      </c>
-      <c r="E26" s="5"/>
+      <c r="D26" s="1">
+        <v>70</v>
+      </c>
+      <c r="E26" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="10">
